--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/12 PRUEBA DE TRANSFERENCIAS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/12 PRUEBA DE TRANSFERENCIAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C40610-6AC1-456B-9EA6-56B1B4D4B503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D149885-211B-483D-9505-8EA43C743FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,12 +65,6 @@
     <t xml:space="preserve">                                                      Auditor </t>
   </si>
   <si>
-    <t xml:space="preserve">                Entidad XXXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Auditoria de Estados Financieros</t>
-  </si>
-  <si>
     <t>Supervisor</t>
   </si>
   <si>
@@ -188,16 +182,22 @@
     <t>JUSTIFICACIÓN DE TRANSFERENCIA</t>
   </si>
   <si>
-    <t xml:space="preserve">                       Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t>CONCLUSION:</t>
   </si>
   <si>
-    <t xml:space="preserve">          PRUEBA DE TRANSFERENCIAS ENTRE BANCOS</t>
-  </si>
-  <si>
     <t>A-12</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>PRUEBA DE TRANSFERENCIAS ENTRE BANCOS</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -424,7 +424,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -445,10 +444,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,6 +474,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1442,7 +1443,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1454,7 +1455,7 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1489,19 +1490,19 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="36" t="s">
-        <v>52</v>
+      <c r="L2" s="33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="21"/>
+      <c r="E3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
@@ -1509,11 +1510,11 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="21"/>
+      <c r="E4" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
@@ -1521,28 +1522,29 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="K5" s="33" t="s">
+      <c r="E5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="K5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="K6" s="33" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="K6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="2"/>
@@ -1552,180 +1554,180 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="25"/>
-      <c r="K7" s="33" t="s">
+      <c r="I7" s="22"/>
+      <c r="K7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="13"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="K8" s="33" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="K8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="F9" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="G9" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="I9" s="29" t="s">
         <v>45</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
         <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1745,14 +1747,14 @@
     <row r="29" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="27"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
@@ -1817,10 +1819,10 @@
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="35"/>
+      <c r="B37" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="32"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -1846,39 +1848,39 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="30"/>
+      <c r="J44" s="27"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="20"/>
-      <c r="H48" s="17" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="19"/>
+      <c r="H48" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="18"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="19" t="s">
-        <v>10</v>
+      <c r="I49" s="18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E52" s="28"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="E53" s="29"/>
+      <c r="E53" s="26"/>
     </row>
     <row r="71" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
     </row>
     <row r="72" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F72" s="1"/>
@@ -1911,6 +1913,12 @@
       <c r="I76" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.47244094488188981" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="65" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
